--- a/teaching/traditional_assets/database/data/poland/poland_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/poland/poland_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ24"/>
+  <dimension ref="A1:AQ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0249</v>
+        <v>-0.06269999999999999</v>
       </c>
       <c r="E2">
-        <v>0.0543</v>
+        <v>-0.11715</v>
       </c>
       <c r="F2">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="G2">
-        <v>0.3070955771368827</v>
+        <v>0.233746658955331</v>
       </c>
       <c r="H2">
-        <v>0.3070263663606176</v>
+        <v>0.2336179723427324</v>
       </c>
       <c r="I2">
-        <v>0.2344609044317917</v>
+        <v>0.1620445492344625</v>
       </c>
       <c r="J2">
-        <v>0.2123301797167605</v>
+        <v>0.1467697583706603</v>
       </c>
       <c r="K2">
-        <v>101.57</v>
+        <v>30.247</v>
       </c>
       <c r="L2">
-        <v>0.1495689052180507</v>
+        <v>0.04474004564676856</v>
       </c>
       <c r="M2">
-        <v>58.43951</v>
+        <v>26.88763</v>
       </c>
       <c r="N2">
-        <v>0.03728945383636659</v>
+        <v>0.01588462222400768</v>
       </c>
       <c r="O2">
-        <v>0.5753619178891405</v>
+        <v>0.8889354316130526</v>
       </c>
       <c r="P2">
-        <v>58.43951</v>
+        <v>26.87663</v>
       </c>
       <c r="Q2">
-        <v>0.03728945383636659</v>
+        <v>0.01587812366521079</v>
       </c>
       <c r="R2">
-        <v>0.5753619178891405</v>
+        <v>0.8885717591827289</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0004091100628802166</v>
       </c>
       <c r="U2">
-        <v>127.257</v>
+        <v>193.316</v>
       </c>
       <c r="V2">
-        <v>0.08120095508765393</v>
+        <v>0.1142068538527297</v>
       </c>
       <c r="W2">
-        <v>0.04876974789915967</v>
+        <v>-0.03159686969667776</v>
       </c>
       <c r="X2">
-        <v>0.03111805462555513</v>
+        <v>0.02342806835825552</v>
       </c>
       <c r="Y2">
-        <v>0.01765169327360453</v>
+        <v>-0.05502493805493328</v>
       </c>
       <c r="Z2">
-        <v>0.4197944902023059</v>
+        <v>0.4279324813856673</v>
       </c>
       <c r="AA2">
-        <v>0.01500596620012894</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03250944212647694</v>
+        <v>0.02531317433810693</v>
       </c>
       <c r="AC2">
-        <v>-0.02347951545787628</v>
+        <v>-0.03208450533821193</v>
       </c>
       <c r="AD2">
-        <v>945.654</v>
+        <v>860.5170000000001</v>
       </c>
       <c r="AE2">
-        <v>5.815583569683566</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>951.4695835696836</v>
+        <v>860.5170000000001</v>
       </c>
       <c r="AG2">
-        <v>824.2125835696836</v>
+        <v>667.201</v>
       </c>
       <c r="AH2">
-        <v>0.3777688342052581</v>
+        <v>0.3370347015509949</v>
       </c>
       <c r="AI2">
-        <v>0.5181693415642765</v>
+        <v>0.4821061206378802</v>
       </c>
       <c r="AJ2">
-        <v>0.3446571346292958</v>
+        <v>0.2827261848463738</v>
       </c>
       <c r="AK2">
-        <v>0.4822899490214439</v>
+        <v>0.4192024860580197</v>
       </c>
       <c r="AL2">
-        <v>47.764</v>
+        <v>52.967</v>
       </c>
       <c r="AM2">
-        <v>40.312</v>
+        <v>43.917</v>
       </c>
       <c r="AN2">
-        <v>5.396552019311431</v>
+        <v>7.366746282456275</v>
       </c>
       <c r="AO2">
-        <v>3.317603215811072</v>
+        <v>2.068306681518681</v>
       </c>
       <c r="AP2">
-        <v>4.70352378587186</v>
+        <v>5.711799402453535</v>
       </c>
       <c r="AQ2">
-        <v>3.930889065290733</v>
+        <v>2.494523760730468</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kancelaria Prawna-Inkaso WEC Spólka Akcyjna (WSE:KPI)</t>
+          <t>DITIX S.A. (WSE:DTX)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,115 +728,94 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.2972677595628415</v>
+        <v>0.2863436123348018</v>
       </c>
       <c r="H3">
-        <v>0.2972677595628415</v>
+        <v>0.2863436123348018</v>
       </c>
       <c r="I3">
-        <v>0.3584699453551913</v>
+        <v>0.02202643171806168</v>
       </c>
       <c r="J3">
-        <v>0.2886947735098986</v>
+        <v>0.01101321585903084</v>
       </c>
       <c r="K3">
-        <v>0.332</v>
+        <v>-0.001</v>
       </c>
       <c r="L3">
-        <v>0.1814207650273224</v>
+        <v>-0.004405286343612334</v>
       </c>
       <c r="M3">
-        <v>0.214</v>
+        <v>0.011</v>
       </c>
       <c r="N3">
-        <v>0.0320839580209895</v>
+        <v>0.009243697478991597</v>
       </c>
       <c r="O3">
-        <v>0.644578313253012</v>
+        <v>-11</v>
       </c>
       <c r="P3">
-        <v>0.214</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.0320839580209895</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.644578313253012</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.003448275862068965</v>
-      </c>
-      <c r="W3">
-        <v>0.259375</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0300701653316531</v>
-      </c>
-      <c r="Y3">
-        <v>0.2293048346683469</v>
-      </c>
-      <c r="Z3">
-        <v>0.8644307982994804</v>
-      </c>
-      <c r="AA3">
-        <v>0.2495566535300493</v>
+        <v>0.01839933913853008</v>
       </c>
       <c r="AB3">
-        <v>0.03136848749307557</v>
-      </c>
-      <c r="AC3">
-        <v>0.2181881660369737</v>
+        <v>0.01839933913853008</v>
       </c>
       <c r="AD3">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.657</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.2011976047904192</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.5637583892617449</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.1989912333373364</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.5603652350355089</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.155</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.126</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.326869806094183</v>
-      </c>
-      <c r="AO3">
-        <v>4.232258064516129</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.295013850415513</v>
-      </c>
-      <c r="AQ3">
-        <v>5.206349206349207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -856,46 +835,49 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0249</v>
+        <v>0.0234</v>
       </c>
       <c r="E4">
-        <v>0.0454</v>
+        <v>-0.00628</v>
+      </c>
+      <c r="F4">
+        <v>0.03</v>
       </c>
       <c r="G4">
-        <v>0.629802095459837</v>
+        <v>0.5209643605870021</v>
       </c>
       <c r="H4">
-        <v>0.629802095459837</v>
+        <v>0.5209643605870021</v>
       </c>
       <c r="I4">
-        <v>0.5024084200938682</v>
+        <v>0.4591194968553459</v>
       </c>
       <c r="J4">
-        <v>0.4080097079775764</v>
+        <v>0.3590457940251572</v>
       </c>
       <c r="K4">
-        <v>36.3</v>
+        <v>30</v>
       </c>
       <c r="L4">
-        <v>0.4225844004656577</v>
+        <v>0.3144654088050314</v>
       </c>
       <c r="M4">
-        <v>33.3</v>
+        <v>26.1</v>
       </c>
       <c r="N4">
-        <v>0.07660455486542443</v>
+        <v>0.05082765335929893</v>
       </c>
       <c r="O4">
-        <v>0.9173553719008264</v>
+        <v>0.87</v>
       </c>
       <c r="P4">
-        <v>33.3</v>
+        <v>26.1</v>
       </c>
       <c r="Q4">
-        <v>0.07660455486542443</v>
+        <v>0.05082765335929893</v>
       </c>
       <c r="R4">
-        <v>0.9173553719008264</v>
+        <v>0.87</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -904,73 +886,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>63.2</v>
+        <v>108.1</v>
       </c>
       <c r="V4">
-        <v>0.1453876236484932</v>
+        <v>0.2105160662122687</v>
       </c>
       <c r="W4">
-        <v>0.1568034557235421</v>
+        <v>0.1395998138669148</v>
       </c>
       <c r="X4">
-        <v>0.02945320437618041</v>
+        <v>0.0193839815505487</v>
       </c>
       <c r="Y4">
-        <v>0.1273502513473617</v>
+        <v>0.1202158323163661</v>
       </c>
       <c r="Z4">
-        <v>0.462784419001929</v>
+        <v>0.4362139917695474</v>
       </c>
       <c r="AA4">
-        <v>0.1888205356535494</v>
+        <v>0.1566207990397805</v>
       </c>
       <c r="AB4">
-        <v>0.02932865857563718</v>
+        <v>0.0196477633950091</v>
       </c>
       <c r="AC4">
-        <v>0.1594918770779122</v>
+        <v>0.1369730356447714</v>
       </c>
       <c r="AD4">
-        <v>67</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="AE4">
-        <v>5.815583569683566</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>72.81558356968357</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="AG4">
-        <v>9.615583569683565</v>
+        <v>-39.5</v>
       </c>
       <c r="AH4">
-        <v>0.1434745767953069</v>
+        <v>0.1178491668098265</v>
       </c>
       <c r="AI4">
-        <v>0.2529060173363634</v>
+        <v>0.2316784869976359</v>
       </c>
       <c r="AJ4">
-        <v>0.02164133765561594</v>
+        <v>-0.08333333333333333</v>
       </c>
       <c r="AK4">
-        <v>0.04279001668213991</v>
+        <v>-0.2101063829787234</v>
       </c>
       <c r="AL4">
-        <v>2.63</v>
+        <v>6.31</v>
       </c>
       <c r="AM4">
-        <v>0.29</v>
+        <v>4.77</v>
       </c>
       <c r="AN4">
-        <v>1.283033320566833</v>
+        <v>1.319230769230769</v>
       </c>
       <c r="AO4">
-        <v>16.12167300380228</v>
+        <v>6.941362916006339</v>
       </c>
       <c r="AP4">
-        <v>0.1841360315910296</v>
+        <v>-0.7596153846153846</v>
       </c>
       <c r="AQ4">
-        <v>146.2068965517241</v>
+        <v>9.182389937106919</v>
       </c>
     </row>
     <row r="5">
@@ -981,7 +963,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Notoria Serwis S.A. (WSE:NTS)</t>
+          <t>Indos SA (WSE:INS)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -990,109 +972,121 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.092</v>
+        <v>-0.007059999999999999</v>
+      </c>
+      <c r="E5">
+        <v>-0.0483</v>
       </c>
       <c r="G5">
-        <v>0.2017543859649123</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="H5">
-        <v>0.2017543859649123</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="I5">
-        <v>0.04093567251461988</v>
+        <v>0.5606796116504854</v>
       </c>
       <c r="J5">
-        <v>0.04093567251461988</v>
+        <v>0.4166217844234994</v>
       </c>
       <c r="K5">
-        <v>0.043</v>
+        <v>1.01</v>
       </c>
       <c r="L5">
-        <v>0.06286549707602339</v>
+        <v>0.2451456310679612</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>0.351</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.05939086294416243</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0.3475247524752475</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>0.351</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.05939086294416243</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0.3475247524752475</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
       <c r="U5">
-        <v>0.168</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.07850467289719626</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.1197771587743733</v>
+        <v>0.1661184210526316</v>
       </c>
       <c r="X5">
-        <v>0.02822824161504784</v>
+        <v>0.03186820864510557</v>
       </c>
       <c r="Y5">
-        <v>0.09154891715932542</v>
+        <v>0.134250212407526</v>
       </c>
       <c r="Z5">
-        <v>3.402985074626866</v>
+        <v>0.2728476821192053</v>
       </c>
       <c r="AA5">
-        <v>0.1393034825870647</v>
+        <v>0.1136742882003191</v>
       </c>
       <c r="AB5">
-        <v>0.02822824161504784</v>
+        <v>0.02524606575840431</v>
       </c>
       <c r="AC5">
-        <v>0.1110752409720168</v>
+        <v>0.08842822244191474</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="AG5">
-        <v>-0.168</v>
+        <v>10.8</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.6463195691202872</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.6074240719910011</v>
       </c>
       <c r="AJ5">
-        <v>-0.08519269776876268</v>
+        <v>0.6463195691202872</v>
       </c>
       <c r="AK5">
-        <v>-0.8038277511961723</v>
+        <v>0.6074240719910011</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.605</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.596</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>4.537815126050421</v>
+      </c>
+      <c r="AO5">
+        <v>3.818181818181818</v>
       </c>
       <c r="AP5">
-        <v>-1.292307692307692</v>
+        <v>4.537815126050421</v>
+      </c>
+      <c r="AQ5">
+        <v>3.875838926174497</v>
       </c>
     </row>
     <row r="6">
@@ -1103,7 +1097,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Analizy Online S.A. (WSE:AOL)</t>
+          <t>Novina Alternatywna Spólka Inwestycyjna Spólka Akcyjna (WSE:NOV)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1112,28 +1106,28 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0788</v>
+        <v>0.0102</v>
       </c>
       <c r="E6">
-        <v>-0.295</v>
+        <v>-0.512</v>
       </c>
       <c r="G6">
-        <v>0.1211822660098522</v>
+        <v>-0.1629213483146068</v>
       </c>
       <c r="H6">
-        <v>0.1211822660098522</v>
+        <v>-0.1629213483146068</v>
       </c>
       <c r="I6">
-        <v>0.07044334975369458</v>
+        <v>0.5786516853932584</v>
       </c>
       <c r="J6">
-        <v>0.03522167487684729</v>
+        <v>0.5786516853932584</v>
       </c>
       <c r="K6">
-        <v>0.058</v>
+        <v>0.207</v>
       </c>
       <c r="L6">
-        <v>0.02857142857142857</v>
+        <v>1.162921348314607</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1157,70 +1151,70 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.06867671691792294</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.04873949579831933</v>
+        <v>0.1457746478873239</v>
       </c>
       <c r="X6">
-        <v>0.02823926605078883</v>
+        <v>0.01839933913853008</v>
       </c>
       <c r="Y6">
-        <v>0.02050022974753051</v>
+        <v>0.1273753087487939</v>
       </c>
       <c r="Z6">
-        <v>3.580246913580248</v>
+        <v>0.1253521126760563</v>
       </c>
       <c r="AA6">
-        <v>0.1261022927689595</v>
+        <v>0.07253521126760563</v>
       </c>
       <c r="AB6">
-        <v>0.02825173549817587</v>
+        <v>0.01839933913853008</v>
       </c>
       <c r="AC6">
-        <v>0.09785055727078359</v>
+        <v>0.05413587212907556</v>
       </c>
       <c r="AD6">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>-0.401</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001505268439538384</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.007971656333038086</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-0.07200574609445143</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>-0.5577190542420026</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>-0.005</v>
+        <v>-0.027</v>
       </c>
       <c r="AN6">
-        <v>0.04017857142857142</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>-1.790178571428571</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>-28.6</v>
+        <v>-3.814814814814814</v>
       </c>
     </row>
     <row r="7">
@@ -1231,7 +1225,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Indos SA (WSE:INS)</t>
+          <t>KRUK Spólka Akcyjna (WSE:KRU)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1240,46 +1234,46 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0156</v>
+        <v>0.14</v>
       </c>
       <c r="E7">
-        <v>0.0247</v>
+        <v>-0.186</v>
       </c>
       <c r="G7">
-        <v>0.6249999999999999</v>
+        <v>0.4132581100141043</v>
       </c>
       <c r="H7">
-        <v>0.6249999999999999</v>
+        <v>0.4132581100141043</v>
       </c>
       <c r="I7">
-        <v>0.6548913043478261</v>
+        <v>0.274330042313117</v>
       </c>
       <c r="J7">
-        <v>0.4765847643405188</v>
+        <v>0.1371650211565585</v>
       </c>
       <c r="K7">
-        <v>0.862</v>
+        <v>17.2</v>
       </c>
       <c r="L7">
-        <v>0.2342391304347826</v>
+        <v>0.06064880112834978</v>
       </c>
       <c r="M7">
-        <v>0.19251</v>
+        <v>0.019</v>
       </c>
       <c r="N7">
-        <v>0.03437678571428571</v>
+        <v>2.634498058790904e-05</v>
       </c>
       <c r="O7">
-        <v>0.2233294663573086</v>
+        <v>0.001104651162790698</v>
       </c>
       <c r="P7">
-        <v>0.19251</v>
+        <v>0.019</v>
       </c>
       <c r="Q7">
-        <v>0.03437678571428571</v>
+        <v>2.634498058790904e-05</v>
       </c>
       <c r="R7">
-        <v>0.2233294663573086</v>
+        <v>0.001104651162790698</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1288,73 +1282,73 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>68.8</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.0953965612867443</v>
       </c>
       <c r="W7">
-        <v>0.1463497453310696</v>
+        <v>0.03507340946166395</v>
       </c>
       <c r="X7">
-        <v>0.04000719498788043</v>
+        <v>0.02414282383437265</v>
       </c>
       <c r="Y7">
-        <v>0.1063425503431892</v>
+        <v>0.0109305856272913</v>
       </c>
       <c r="Z7">
-        <v>0.2758620689655172</v>
+        <v>0.2644782243775063</v>
       </c>
       <c r="AA7">
-        <v>0.131471659128419</v>
+        <v>0.03627716124218969</v>
       </c>
       <c r="AB7">
-        <v>0.03785765903066469</v>
+        <v>0.02538028291780954</v>
       </c>
       <c r="AC7">
-        <v>0.09361400009775431</v>
+        <v>0.01089687832438015</v>
       </c>
       <c r="AD7">
-        <v>9.02</v>
+        <v>562</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>9.02</v>
+        <v>562</v>
       </c>
       <c r="AG7">
-        <v>9.02</v>
+        <v>493.2</v>
       </c>
       <c r="AH7">
-        <v>0.6169630642954856</v>
+        <v>0.4379675810473815</v>
       </c>
       <c r="AI7">
-        <v>0.5973509933774834</v>
+        <v>0.5124464301996899</v>
       </c>
       <c r="AJ7">
-        <v>0.6169630642954856</v>
+        <v>0.4061264822134387</v>
       </c>
       <c r="AK7">
-        <v>0.5973509933774834</v>
+        <v>0.4798132114018873</v>
       </c>
       <c r="AL7">
-        <v>0.529</v>
+        <v>29.9</v>
       </c>
       <c r="AM7">
-        <v>0.518</v>
+        <v>29.372</v>
       </c>
       <c r="AN7">
-        <v>3.637096774193548</v>
+        <v>7.553763440860214</v>
       </c>
       <c r="AO7">
-        <v>4.555765595463138</v>
+        <v>2.602006688963211</v>
       </c>
       <c r="AP7">
-        <v>3.637096774193548</v>
+        <v>6.629032258064515</v>
       </c>
       <c r="AQ7">
-        <v>4.652509652509653</v>
+        <v>2.648781152117663</v>
       </c>
     </row>
     <row r="8">
@@ -1365,7 +1359,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KRUK Spólka Akcyjna (WSE:KRU)</t>
+          <t>Kredyt Inkaso S.A. (WSE:KRI)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1374,124 +1368,115 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.21</v>
-      </c>
-      <c r="E8">
-        <v>0.155</v>
-      </c>
-      <c r="F8">
-        <v>0.19</v>
+        <v>0.0315</v>
       </c>
       <c r="G8">
-        <v>0.4268813670719684</v>
+        <v>6.666666666666672e-05</v>
       </c>
       <c r="H8">
-        <v>0.4268813670719684</v>
+        <v>-0.0026</v>
       </c>
       <c r="I8">
-        <v>0.3644429838974696</v>
+        <v>0.1506666666666666</v>
       </c>
       <c r="J8">
-        <v>0.3449125778373232</v>
+        <v>0.1506666666666666</v>
       </c>
       <c r="K8">
-        <v>73.7</v>
+        <v>-5.41</v>
       </c>
       <c r="L8">
-        <v>0.2421952021031877</v>
+        <v>-0.1803333333333333</v>
       </c>
       <c r="M8">
-        <v>23.7</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.02829850746268657</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>0.3215739484396201</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>23.7</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.02829850746268657</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>0.3215739484396201</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
-        <v>41.2</v>
+        <v>6.82</v>
       </c>
       <c r="V8">
-        <v>0.04919402985074627</v>
+        <v>0.1994152046783626</v>
       </c>
       <c r="W8">
-        <v>0.1595238095238095</v>
+        <v>-0.08573692551505546</v>
       </c>
       <c r="X8">
-        <v>0.03380698345380819</v>
+        <v>0.04462698692387743</v>
       </c>
       <c r="Y8">
-        <v>0.1257168260700013</v>
+        <v>-0.1303639124389329</v>
       </c>
       <c r="Z8">
-        <v>0.2936125048243921</v>
+        <v>0.1630700657715932</v>
       </c>
       <c r="AA8">
-        <v>0.1012706459242546</v>
+        <v>0.02456922324292004</v>
       </c>
       <c r="AB8">
-        <v>0.0336503967598783</v>
+        <v>0.03084209668804102</v>
       </c>
       <c r="AC8">
-        <v>0.06762024916437627</v>
+        <v>-0.006272873445120977</v>
       </c>
       <c r="AD8">
-        <v>638.9</v>
+        <v>121.7</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>638.9</v>
+        <v>121.7</v>
       </c>
       <c r="AG8">
-        <v>597.6999999999999</v>
+        <v>114.88</v>
       </c>
       <c r="AH8">
-        <v>0.4327418043890544</v>
+        <v>0.7806286080821039</v>
       </c>
       <c r="AI8">
-        <v>0.5657486938811653</v>
+        <v>0.6783723522853957</v>
       </c>
       <c r="AJ8">
-        <v>0.4164576365663322</v>
+        <v>0.770592970217333</v>
       </c>
       <c r="AK8">
-        <v>0.5493061299512912</v>
+        <v>0.6656623015413142</v>
       </c>
       <c r="AL8">
-        <v>27.2</v>
+        <v>10.9</v>
       </c>
       <c r="AM8">
-        <v>26.683</v>
+        <v>10.466</v>
       </c>
       <c r="AN8">
-        <v>5.594570928196147</v>
+        <v>22.45387453874539</v>
       </c>
       <c r="AO8">
-        <v>4.077205882352941</v>
+        <v>0.4146788990825688</v>
       </c>
       <c r="AP8">
-        <v>5.233800350262697</v>
+        <v>21.19557195571956</v>
       </c>
       <c r="AQ8">
-        <v>4.156204324851029</v>
+        <v>0.4318746416969233</v>
       </c>
     </row>
     <row r="9">
@@ -1502,7 +1487,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FTI Profit S.A. (WSE:FTI)</t>
+          <t>IDM S.A. (WSE:IDM)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1511,22 +1496,22 @@
         </is>
       </c>
       <c r="G9">
-        <v>0.25</v>
+        <v>-0</v>
       </c>
       <c r="H9">
-        <v>0.25</v>
+        <v>-0</v>
       </c>
       <c r="I9">
-        <v>0.1794117647058823</v>
+        <v>-0</v>
       </c>
       <c r="J9">
-        <v>0.153781512605042</v>
+        <v>-0</v>
       </c>
       <c r="K9">
-        <v>0.054</v>
+        <v>1.93</v>
       </c>
       <c r="L9">
-        <v>0.1588235294117647</v>
+        <v>-3.502722323049001</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1550,31 +1535,31 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.486</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.03218543046357616</v>
       </c>
       <c r="W9">
-        <v>0.08809135399673736</v>
+        <v>-0.1078212290502793</v>
       </c>
       <c r="X9">
-        <v>0.02822824161504784</v>
+        <v>0.01839933913853008</v>
       </c>
       <c r="Y9">
-        <v>0.05986311238168952</v>
+        <v>-0.1262205681888094</v>
       </c>
       <c r="Z9">
-        <v>0.5546492659053834</v>
+        <v>0.03018847249616481</v>
       </c>
       <c r="AA9">
-        <v>0.08529480307620602</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>0.02822824161504784</v>
+        <v>0.01839933913853008</v>
       </c>
       <c r="AC9">
-        <v>0.05706656146115818</v>
+        <v>-0.01839933913853008</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1586,34 +1571,28 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>-0.486</v>
       </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>-0.0332557821267278</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>0.3349414197105444</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>-0.003</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
+        <v>-3.53</v>
       </c>
       <c r="AQ9">
-        <v>-20.33333333333333</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -1624,7 +1603,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BVT S.A. (WSE:BVT)</t>
+          <t>Wierzyciel S.A. (WSE:WRL)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1632,23 +1611,26 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D10">
+        <v>-0.25</v>
+      </c>
       <c r="G10">
-        <v>0.08165137614678898</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.08165137614678898</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2472477064220183</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1840148159865022</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.259</v>
+        <v>-0.107</v>
       </c>
       <c r="L10">
-        <v>0.1188073394495413</v>
+        <v>-0.3807829181494661</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1657,7 +1639,7 @@
         <v>-0</v>
       </c>
       <c r="O10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>-0</v>
@@ -1666,7 +1648,7 @@
         <v>-0</v>
       </c>
       <c r="R10">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1678,67 +1660,58 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.4658273381294964</v>
+        <v>-0.04131274131274131</v>
       </c>
       <c r="X10">
-        <v>0.04450103710984624</v>
+        <v>0.01839933913853008</v>
       </c>
       <c r="Y10">
-        <v>0.4213263010196502</v>
+        <v>-0.05971208045127139</v>
       </c>
       <c r="Z10">
-        <v>0.6253585771658061</v>
+        <v>0.1084942084942085</v>
       </c>
       <c r="AA10">
-        <v>0.1150752435027466</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.07739005198871488</v>
+        <v>0.01839933913853008</v>
       </c>
       <c r="AC10">
-        <v>0.03768519151403174</v>
+        <v>-0.01839933913853008</v>
       </c>
       <c r="AD10">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.6899441340782123</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.7694704049844238</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.6899441340782123</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>0.7694704049844238</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>0.173</v>
-      </c>
-      <c r="AN10">
-        <v>4.318181818181819</v>
-      </c>
-      <c r="AO10">
-        <v>2.867021276595745</v>
-      </c>
-      <c r="AP10">
-        <v>4.318181818181819</v>
+        <v>-0.017</v>
       </c>
       <c r="AQ10">
-        <v>3.115606936416186</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -1749,7 +1722,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kredyt Inkaso S.A. (WSE:KRI)</t>
+          <t>NWAI Dom Maklerski S.A. (WSE:NWA)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1758,115 +1731,109 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.08740000000000001</v>
+        <v>0.323</v>
       </c>
       <c r="G11">
-        <v>0.5990236686390533</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.5976331360946746</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2366863905325444</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2366863905325444</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>-5.41</v>
+        <v>1.99</v>
       </c>
       <c r="L11">
-        <v>-0.1600591715976332</v>
+        <v>0.402834008097166</v>
       </c>
       <c r="M11">
-        <v>-0</v>
+        <v>0.40663</v>
       </c>
       <c r="N11">
-        <v>-0</v>
+        <v>0.05850791366906476</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.2043366834170854</v>
       </c>
       <c r="P11">
-        <v>-0</v>
+        <v>0.40663</v>
       </c>
       <c r="Q11">
-        <v>-0</v>
+        <v>0.05850791366906476</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.2043366834170854</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
       <c r="U11">
-        <v>7.68</v>
+        <v>2.2</v>
       </c>
       <c r="V11">
-        <v>0.1695364238410596</v>
+        <v>0.3165467625899281</v>
       </c>
       <c r="W11">
-        <v>-0.07184594953519256</v>
+        <v>1.047368421052632</v>
       </c>
       <c r="X11">
-        <v>0.04940813770587266</v>
+        <v>0.01841206512074972</v>
       </c>
       <c r="Y11">
-        <v>-0.1212540872410652</v>
+        <v>1.028956355931882</v>
       </c>
       <c r="Z11">
-        <v>0.1543942992874109</v>
+        <v>4.102990033222593</v>
       </c>
       <c r="AA11">
-        <v>0.03654302941713868</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.03754215540264039</v>
+        <v>0.01843264889016883</v>
       </c>
       <c r="AC11">
-        <v>-0.0009991259855017115</v>
+        <v>-0.01843264889016883</v>
       </c>
       <c r="AD11">
-        <v>131.2</v>
+        <v>0.012</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>131.2</v>
+        <v>0.012</v>
       </c>
       <c r="AG11">
-        <v>123.52</v>
+        <v>-2.188</v>
       </c>
       <c r="AH11">
-        <v>0.7433427762039659</v>
+        <v>0.001723642631427751</v>
       </c>
       <c r="AI11">
-        <v>0.6724756535110199</v>
+        <v>0.003506721215663355</v>
       </c>
       <c r="AJ11">
-        <v>0.731666864115626</v>
+        <v>-0.4594708105837883</v>
       </c>
       <c r="AK11">
-        <v>0.6590545299327712</v>
+        <v>-1.79050736497545</v>
       </c>
       <c r="AL11">
-        <v>9.69</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>9.549999999999999</v>
-      </c>
-      <c r="AN11">
-        <v>14.35448577680525</v>
-      </c>
-      <c r="AO11">
-        <v>0.825593395252838</v>
-      </c>
-      <c r="AP11">
-        <v>13.51422319474836</v>
+        <v>-0.038</v>
       </c>
       <c r="AQ11">
-        <v>0.8376963350785341</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -1877,7 +1844,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Atlantis S.A. (WSE:ATS)</t>
+          <t>SMS Kredyt Holding S.A. (WSE:SMS)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1885,23 +1852,26 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D12">
+        <v>-0.146</v>
+      </c>
       <c r="G12">
-        <v>0.7455621301775147</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.7455621301775147</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>-1.875739644970414</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>-1.875739644970414</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>-2.55</v>
+        <v>-3.36</v>
       </c>
       <c r="L12">
-        <v>15.0887573964497</v>
+        <v>-1.12</v>
       </c>
       <c r="M12">
         <v>-0</v>
@@ -1925,73 +1895,64 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>0.3453947368421053</v>
       </c>
       <c r="W12">
-        <v>-0.1408839779005525</v>
+        <v>-0.7584650112866818</v>
       </c>
       <c r="X12">
-        <v>0.02823918903377267</v>
+        <v>0.03149161196482303</v>
       </c>
       <c r="Y12">
-        <v>-0.1691231669343251</v>
+        <v>-0.7899566232515047</v>
       </c>
       <c r="Z12">
-        <v>-0.009069929694627811</v>
+        <v>0.2686246418338109</v>
       </c>
       <c r="AA12">
-        <v>0.01701282670530779</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.02825157161458653</v>
+        <v>0.03076380844055012</v>
       </c>
       <c r="AC12">
-        <v>-0.01123874490927875</v>
+        <v>-0.03076380844055012</v>
       </c>
       <c r="AD12">
-        <v>0.005</v>
+        <v>5.4</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0.005</v>
+        <v>5.4</v>
       </c>
       <c r="AG12">
-        <v>0.005</v>
+        <v>4.350000000000001</v>
       </c>
       <c r="AH12">
-        <v>0.001494768310911809</v>
+        <v>0.6398104265402843</v>
       </c>
       <c r="AI12">
-        <v>0.0003935458480913026</v>
+        <v>0.7988165680473372</v>
       </c>
       <c r="AJ12">
-        <v>0.001494768310911809</v>
+        <v>0.5886332882273343</v>
       </c>
       <c r="AK12">
-        <v>0.0003935458480913026</v>
+        <v>0.7618213660245183</v>
       </c>
       <c r="AL12">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="AM12">
-        <v>-0.093</v>
-      </c>
-      <c r="AN12">
-        <v>0.01538461538461538</v>
-      </c>
-      <c r="AO12">
-        <v>4.731343283582089</v>
-      </c>
-      <c r="AP12">
-        <v>0.01538461538461538</v>
+        <v>-0.002</v>
       </c>
       <c r="AQ12">
-        <v>-3.408602150537634</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -2002,7 +1963,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pragma Inkaso S.A. (WSE:PRI)</t>
+          <t>Marka S.A. (WSE:MRK)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2011,121 +1972,106 @@
         </is>
       </c>
       <c r="D13">
-        <v>-0.399</v>
-      </c>
-      <c r="E13">
-        <v>0.06320000000000001</v>
+        <v>-0.114</v>
       </c>
       <c r="G13">
-        <v>0.2951680672268908</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.2951680672268908</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.148109243697479</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1141943734015345</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.918</v>
+        <v>-0.263</v>
       </c>
       <c r="L13">
-        <v>0.09642857142857143</v>
+        <v>-0.1406417112299465</v>
       </c>
       <c r="M13">
-        <v>0.003</v>
+        <v>-0</v>
       </c>
       <c r="N13">
-        <v>0.0004470938897168405</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>0.00326797385620915</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.003</v>
+        <v>-0</v>
       </c>
       <c r="Q13">
-        <v>0.0004470938897168405</v>
+        <v>-0</v>
       </c>
       <c r="R13">
-        <v>0.00326797385620915</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
-        <v>8.279999999999999</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>1.23397913561848</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>0.06850746268656717</v>
+        <v>0.03828238719068414</v>
       </c>
       <c r="X13">
-        <v>0.05776310475840329</v>
+        <v>0.1368727347221917</v>
       </c>
       <c r="Y13">
-        <v>0.01074435792816388</v>
+        <v>-0.09859034753150756</v>
       </c>
       <c r="Z13">
-        <v>0.1706704912154894</v>
+        <v>1.764150943396227</v>
       </c>
       <c r="AA13">
-        <v>0.01948960980248491</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.04073846221950245</v>
+        <v>0.03340520223587374</v>
       </c>
       <c r="AC13">
-        <v>-0.02124885241701753</v>
+        <v>-0.03340520223587374</v>
       </c>
       <c r="AD13">
-        <v>27.1</v>
+        <v>8.68</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>27.1</v>
+        <v>8.68</v>
       </c>
       <c r="AG13">
-        <v>18.82</v>
+        <v>8.68</v>
       </c>
       <c r="AH13">
-        <v>0.8015380065069506</v>
+        <v>0.9414316702819957</v>
       </c>
       <c r="AI13">
-        <v>0.6346604215456675</v>
+        <v>5.292682926829269</v>
       </c>
       <c r="AJ13">
-        <v>0.7371719545632589</v>
+        <v>0.9414316702819957</v>
       </c>
       <c r="AK13">
-        <v>0.546775130737943</v>
+        <v>5.292682926829269</v>
       </c>
       <c r="AL13">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AM13">
-        <v>2.62</v>
-      </c>
-      <c r="AN13">
-        <v>14.89010989010989</v>
-      </c>
-      <c r="AO13">
-        <v>0.5320754716981132</v>
-      </c>
-      <c r="AP13">
-        <v>10.34065934065934</v>
+        <v>-0.056</v>
       </c>
       <c r="AQ13">
-        <v>0.5381679389312977</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
@@ -2136,7 +2082,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pragma Faktoring Spolka Akcyjna (WSE:PRF)</t>
+          <t>Remedis SA (WSE:REM)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2145,121 +2091,106 @@
         </is>
       </c>
       <c r="D14">
-        <v>-0.412</v>
-      </c>
-      <c r="E14">
-        <v>0.125</v>
+        <v>-0.165</v>
       </c>
       <c r="G14">
-        <v>0.4425287356321839</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.4425287356321839</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1117816091954023</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08488826910074375</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.33</v>
+        <v>-0.078</v>
       </c>
       <c r="L14">
-        <v>0.1910919540229885</v>
+        <v>-0.6190476190476191</v>
       </c>
       <c r="M14">
-        <v>1.03</v>
+        <v>-0</v>
       </c>
       <c r="N14">
-        <v>0.1203271028037383</v>
+        <v>-0</v>
       </c>
       <c r="O14">
-        <v>0.7744360902255639</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.03</v>
+        <v>-0</v>
       </c>
       <c r="Q14">
-        <v>0.1203271028037383</v>
+        <v>-0</v>
       </c>
       <c r="R14">
-        <v>0.7744360902255639</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
       <c r="U14">
-        <v>3.5</v>
+        <v>0.206</v>
       </c>
       <c r="V14">
-        <v>0.4088785046728972</v>
+        <v>0.07686567164179103</v>
       </c>
       <c r="W14">
-        <v>0.1136752136752137</v>
+        <v>-0.07027027027027026</v>
       </c>
       <c r="X14">
-        <v>0.0431786300371627</v>
+        <v>0.02337715298591775</v>
       </c>
       <c r="Y14">
-        <v>0.07049658363805099</v>
+        <v>-0.09364742325618801</v>
       </c>
       <c r="Z14">
-        <v>0.1531319442916547</v>
+        <v>0.05887850467289721</v>
       </c>
       <c r="AA14">
-        <v>0.01299910569495009</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.03870928419368511</v>
+        <v>0.04102863539957847</v>
       </c>
       <c r="AC14">
-        <v>-0.02571017849873502</v>
+        <v>-0.04102863539957847</v>
       </c>
       <c r="AD14">
-        <v>17.5</v>
+        <v>1.81</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>17.5</v>
+        <v>1.81</v>
       </c>
       <c r="AG14">
-        <v>14</v>
+        <v>1.604</v>
       </c>
       <c r="AH14">
-        <v>0.6715272448196469</v>
+        <v>0.4031180400890869</v>
       </c>
       <c r="AI14">
-        <v>0.5645161290322581</v>
+        <v>0.6262975778546712</v>
       </c>
       <c r="AJ14">
-        <v>0.6205673758865248</v>
+        <v>0.3744164332399626</v>
       </c>
       <c r="AK14">
-        <v>0.509090909090909</v>
+        <v>0.5976154992548435</v>
       </c>
       <c r="AL14">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>1.99</v>
-      </c>
-      <c r="AN14">
-        <v>17.32673267326733</v>
-      </c>
-      <c r="AO14">
-        <v>0.3909547738693467</v>
-      </c>
-      <c r="AP14">
-        <v>13.86138613861386</v>
+        <v>-0.006</v>
       </c>
       <c r="AQ14">
-        <v>0.3909547738693467</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
@@ -2270,7 +2201,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>IDM S.A. (WSE:IDM)</t>
+          <t>AKCEPT Finance S.A. (WSE:AFC)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2278,23 +2209,26 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D15">
+        <v>-0.233</v>
+      </c>
       <c r="G15">
-        <v>-0</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="H15">
-        <v>-0</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="I15">
-        <v>-0</v>
+        <v>-0.2588235294117647</v>
       </c>
       <c r="J15">
-        <v>-0</v>
+        <v>-0.2588235294117647</v>
       </c>
       <c r="K15">
-        <v>1.93</v>
+        <v>-0.995</v>
       </c>
       <c r="L15">
-        <v>-3.502722323049001</v>
+        <v>-5.852941176470588</v>
       </c>
       <c r="M15">
         <v>-0</v>
@@ -2303,7 +2237,7 @@
         <v>-0</v>
       </c>
       <c r="O15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>-0</v>
@@ -2312,70 +2246,79 @@
         <v>-0</v>
       </c>
       <c r="R15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0.486</v>
+        <v>0.001</v>
       </c>
       <c r="V15">
-        <v>0.6303501945525292</v>
+        <v>0.001555209953343701</v>
       </c>
       <c r="W15">
-        <v>-0.1078212290502793</v>
+        <v>-0.4344978165938865</v>
       </c>
       <c r="X15">
-        <v>0.02822824161504784</v>
+        <v>0.05278719933546334</v>
       </c>
       <c r="Y15">
-        <v>-0.1360494706653272</v>
+        <v>-0.4872850159293498</v>
       </c>
       <c r="Z15">
-        <v>0.03018847249616481</v>
+        <v>0.02660406885758999</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>-0.006885758998435055</v>
       </c>
       <c r="AB15">
-        <v>0.02822824161504784</v>
+        <v>0.03431359187727549</v>
       </c>
       <c r="AC15">
-        <v>-0.02822824161504784</v>
+        <v>-0.04119935087571054</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG15">
-        <v>-0.486</v>
+        <v>2.999</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>0.8234971177600879</v>
       </c>
       <c r="AI15">
-        <v>-0</v>
+        <v>0.6880733944954128</v>
       </c>
       <c r="AJ15">
-        <v>-1.705263157894737</v>
+        <v>0.8234486545853926</v>
       </c>
       <c r="AK15">
-        <v>0.3349414197105444</v>
+        <v>0.6880018352833219</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>0.173</v>
       </c>
       <c r="AM15">
-        <v>-3.53</v>
+        <v>0.172</v>
+      </c>
+      <c r="AN15">
+        <v>-81.08108108108108</v>
+      </c>
+      <c r="AO15">
+        <v>-0.2543352601156069</v>
+      </c>
+      <c r="AP15">
+        <v>-81.05405405405406</v>
       </c>
       <c r="AQ15">
-        <v>-0</v>
+        <v>-0.2558139534883721</v>
       </c>
     </row>
     <row r="16">
@@ -2386,7 +2329,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Wierzyciel S.A. (WSE:WRL)</t>
+          <t>BVT S.A. (WSE:BVT)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2395,25 +2338,28 @@
         </is>
       </c>
       <c r="D16">
-        <v>-0.216</v>
+        <v>-0.06269999999999999</v>
+      </c>
+      <c r="E16">
+        <v>-0.294</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.4336363636363636</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.4336363636363636</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>-0.008181818181818181</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>-0.006387559808612439</v>
       </c>
       <c r="K16">
-        <v>-0.08500000000000001</v>
+        <v>0.089</v>
       </c>
       <c r="L16">
-        <v>-0.2507374631268436</v>
+        <v>0.0809090909090909</v>
       </c>
       <c r="M16">
         <v>-0</v>
@@ -2422,7 +2368,7 @@
         <v>-0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P16">
         <v>-0</v>
@@ -2431,70 +2377,79 @@
         <v>-0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>0.0490990990990991</v>
       </c>
       <c r="W16">
-        <v>-0.02920962199312715</v>
+        <v>0.1202702702702703</v>
       </c>
       <c r="X16">
-        <v>0.02822824161504784</v>
+        <v>0.02347898373059329</v>
       </c>
       <c r="Y16">
-        <v>-0.05743786360817499</v>
+        <v>0.09679128653967697</v>
       </c>
       <c r="Z16">
-        <v>0.1164948453608247</v>
+        <v>0.3426791277258567</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>-0.002188883423512051</v>
       </c>
       <c r="AB16">
-        <v>0.02822824161504784</v>
+        <v>0.04700346742943602</v>
       </c>
       <c r="AC16">
-        <v>-0.02822824161504784</v>
+        <v>-0.04919235085294807</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1.421</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>0.408</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>0.6409719312945119</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>0.3902773963196924</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>0.6237928007023705</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="AM16">
-        <v>-0.01</v>
+        <v>0.101</v>
+      </c>
+      <c r="AN16">
+        <v>191.25</v>
+      </c>
+      <c r="AO16">
+        <v>-0.08256880733944953</v>
+      </c>
+      <c r="AP16">
+        <v>177.625</v>
       </c>
       <c r="AQ16">
-        <v>-0</v>
+        <v>-0.08910891089108909</v>
       </c>
     </row>
     <row r="17">
@@ -2505,7 +2460,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Novina Alternatywna Spólka Inwestycyjna Spólka Akcyjna (WSE:NOV)</t>
+          <t>Figene Capital Spólka Akcyjna (WSE:FIG)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2514,25 +2469,25 @@
         </is>
       </c>
       <c r="D17">
-        <v>1.528</v>
+        <v>0.5429999999999999</v>
       </c>
       <c r="G17">
-        <v>-2.615384615384616</v>
+        <v>-1.081845238095238</v>
       </c>
       <c r="H17">
-        <v>-2.615384615384616</v>
+        <v>-1.081845238095238</v>
       </c>
       <c r="I17">
-        <v>-0.653846153846154</v>
+        <v>-0.8437499999999999</v>
       </c>
       <c r="J17">
-        <v>-0.653846153846154</v>
+        <v>-0.8437499999999999</v>
       </c>
       <c r="K17">
-        <v>0.061</v>
+        <v>-1.14</v>
       </c>
       <c r="L17">
-        <v>2.346153846153846</v>
+        <v>-1.696428571428571</v>
       </c>
       <c r="M17">
         <v>-0</v>
@@ -2541,7 +2496,7 @@
         <v>-0</v>
       </c>
       <c r="O17">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>-0</v>
@@ -2550,76 +2505,79 @@
         <v>-0</v>
       </c>
       <c r="R17">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>0.001774379688401616</v>
       </c>
       <c r="W17">
-        <v>0.0488</v>
+        <v>-0.0218809980806142</v>
       </c>
       <c r="X17">
-        <v>0.02822824161504784</v>
+        <v>0.01850183665689318</v>
       </c>
       <c r="Y17">
-        <v>0.02057175838495216</v>
+        <v>-0.04038283473750738</v>
       </c>
       <c r="Z17">
-        <v>0.0208</v>
+        <v>0.09205479452054789</v>
       </c>
       <c r="AA17">
-        <v>-0.0136</v>
+        <v>-0.07767123287671228</v>
       </c>
       <c r="AB17">
-        <v>0.02822824161504784</v>
+        <v>0.01866439946667052</v>
       </c>
       <c r="AC17">
-        <v>-0.04182824161504784</v>
+        <v>-0.0963356323433828</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>4.82</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>4.82</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>4.205</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>0.01371578168573217</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>0.0615423901940756</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>0.01198671626687191</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>0.05411492181970273</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AM17">
-        <v>-0.035</v>
+        <v>1.53</v>
       </c>
       <c r="AN17">
-        <v>-0</v>
+        <v>-10.45553145336226</v>
+      </c>
+      <c r="AO17">
+        <v>-0.3705882352941176</v>
       </c>
       <c r="AP17">
-        <v>-0</v>
+        <v>-9.121475054229935</v>
       </c>
       <c r="AQ17">
-        <v>0.4857142857142857</v>
+        <v>-0.3705882352941176</v>
       </c>
     </row>
     <row r="18">
@@ -2630,7 +2588,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SMS Kredyt Holding S.A. (WSE:SMS)</t>
+          <t>Pragma Inkaso S.A. (WSE:PRI)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2639,25 +2597,25 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.0689</v>
+        <v>-0.4370000000000001</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.2749391727493917</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2749391727493917</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>-0.3272506082725061</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>-0.3272506082725061</v>
       </c>
       <c r="K18">
-        <v>-0.946</v>
+        <v>-5.53</v>
       </c>
       <c r="L18">
-        <v>-0.1202033036848793</v>
+        <v>-0.6727493917274939</v>
       </c>
       <c r="M18">
         <v>-0</v>
@@ -2681,64 +2639,73 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0.9320000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="V18">
-        <v>1.018579234972678</v>
+        <v>0.4363001745200698</v>
       </c>
       <c r="W18">
-        <v>-0.1587248322147651</v>
+        <v>-0.4157894736842105</v>
       </c>
       <c r="X18">
-        <v>0.08952852214161365</v>
+        <v>0.05055668949720968</v>
       </c>
       <c r="Y18">
-        <v>-0.2482533543563787</v>
+        <v>-0.4663461631814202</v>
       </c>
       <c r="Z18">
-        <v>0.6362680895787857</v>
+        <v>0.271108179419525</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>-0.08872031662269128</v>
       </c>
       <c r="AB18">
-        <v>0.04217251575982883</v>
+        <v>0.03412111555876263</v>
       </c>
       <c r="AC18">
-        <v>-0.04217251575982883</v>
+        <v>-0.1228414321814539</v>
       </c>
       <c r="AD18">
-        <v>7.67</v>
+        <v>25</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>7.67</v>
+        <v>25</v>
       </c>
       <c r="AG18">
-        <v>6.738</v>
+        <v>22.5</v>
       </c>
       <c r="AH18">
-        <v>0.8934187536400698</v>
+        <v>0.8135372600065083</v>
       </c>
       <c r="AI18">
-        <v>0.6338842975206612</v>
+        <v>0.715922107674685</v>
       </c>
       <c r="AJ18">
-        <v>0.8804390435123481</v>
+        <v>0.7970244420828906</v>
       </c>
       <c r="AK18">
-        <v>0.6033309455587392</v>
+        <v>0.6940160394818014</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>0.901</v>
       </c>
       <c r="AM18">
-        <v>-0.002</v>
+        <v>-1.759</v>
+      </c>
+      <c r="AN18">
+        <v>-10.91703056768559</v>
+      </c>
+      <c r="AO18">
+        <v>-2.985571587125416</v>
+      </c>
+      <c r="AP18">
+        <v>-9.825327510917031</v>
       </c>
       <c r="AQ18">
-        <v>-0</v>
+        <v>1.52927799886299</v>
       </c>
     </row>
     <row r="19">
@@ -2749,7 +2716,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Remedis SA (WSE:REM)</t>
+          <t>PBS Finanse S.A. (WSE:PBF)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2758,25 +2725,25 @@
         </is>
       </c>
       <c r="D19">
-        <v>-0.365</v>
+        <v>-0.359</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>-2.03125</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>-2.03125</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>-1.618055555555556</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>-1.618055555555556</v>
       </c>
       <c r="K19">
-        <v>-0.265</v>
+        <v>-1.81</v>
       </c>
       <c r="L19">
-        <v>-3.897058823529412</v>
+        <v>-6.284722222222223</v>
       </c>
       <c r="M19">
         <v>-0</v>
@@ -2800,64 +2767,73 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0.188</v>
+        <v>1.43</v>
       </c>
       <c r="V19">
-        <v>0.3540489642184557</v>
+        <v>1.692307692307692</v>
       </c>
       <c r="W19">
-        <v>-0.1766666666666667</v>
+        <v>-0.4013303769401331</v>
       </c>
       <c r="X19">
-        <v>0.05494571595381653</v>
+        <v>0.01849528601631032</v>
       </c>
       <c r="Y19">
-        <v>-0.2316123826204832</v>
+        <v>-0.4198256629564434</v>
       </c>
       <c r="Z19">
-        <v>0.02567006417516044</v>
+        <v>0.07005594745803941</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>-0.1133544149841888</v>
       </c>
       <c r="AB19">
-        <v>0.06509277144155225</v>
+        <v>0.01912070856999416</v>
       </c>
       <c r="AC19">
-        <v>-0.06509277144155225</v>
+        <v>-0.1324751235541829</v>
       </c>
       <c r="AD19">
-        <v>1.94</v>
+        <v>0.011</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>1.94</v>
+        <v>0.011</v>
       </c>
       <c r="AG19">
-        <v>1.752</v>
+        <v>-1.419</v>
       </c>
       <c r="AH19">
-        <v>0.7851072440307567</v>
+        <v>0.01285046728971963</v>
       </c>
       <c r="AI19">
-        <v>0.6360655737704918</v>
+        <v>0.004118307749906402</v>
       </c>
       <c r="AJ19">
-        <v>0.7674113009198423</v>
+        <v>2.472125435540069</v>
       </c>
       <c r="AK19">
-        <v>0.6121593291404612</v>
+        <v>-1.143432715551974</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="AM19">
-        <v>-0.02</v>
+        <v>-0.065</v>
+      </c>
+      <c r="AN19">
+        <v>-0.02564102564102564</v>
+      </c>
+      <c r="AO19">
+        <v>-42.36363636363637</v>
+      </c>
+      <c r="AP19">
+        <v>3.307692307692308</v>
       </c>
       <c r="AQ19">
-        <v>-0</v>
+        <v>7.16923076923077</v>
       </c>
     </row>
     <row r="20">
@@ -2868,7 +2844,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Marka S.A. (WSE:MRK)</t>
+          <t>Aforti Holding S.A. (WSE:AFH)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2876,23 +2852,29 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D20">
+        <v>0.8959999999999999</v>
+      </c>
+      <c r="E20">
+        <v>0.109</v>
+      </c>
       <c r="G20">
-        <v>-0</v>
+        <v>-0.02990464344941957</v>
       </c>
       <c r="H20">
-        <v>-0</v>
+        <v>-0.02993366500829188</v>
       </c>
       <c r="I20">
-        <v>-0</v>
+        <v>-0.03864013266998342</v>
       </c>
       <c r="J20">
-        <v>-0</v>
+        <v>-0.03864013266998342</v>
       </c>
       <c r="K20">
-        <v>-3.44</v>
+        <v>0.423</v>
       </c>
       <c r="L20">
-        <v>15.92592592592593</v>
+        <v>0.001753731343283582</v>
       </c>
       <c r="M20">
         <v>-0</v>
@@ -2901,7 +2883,7 @@
         <v>-0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P20">
         <v>-0</v>
@@ -2910,70 +2892,79 @@
         <v>-0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>0.629</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>0.02885321100917431</v>
       </c>
       <c r="W20">
-        <v>0.9222520107238605</v>
+        <v>0.3615384615384615</v>
       </c>
       <c r="X20">
-        <v>0.1253610945329748</v>
+        <v>0.03215979388072829</v>
       </c>
       <c r="Y20">
-        <v>0.7968909161908858</v>
+        <v>0.3293786676577332</v>
       </c>
       <c r="Z20">
-        <v>-0.05595854922279793</v>
+        <v>8.71765216134162</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>-0.3368512360850079</v>
       </c>
       <c r="AB20">
-        <v>0.09449403491436095</v>
+        <v>0.03675709535185837</v>
       </c>
       <c r="AC20">
-        <v>-0.09449403491436095</v>
+        <v>-0.3736083314368663</v>
       </c>
       <c r="AD20">
-        <v>6.96</v>
+        <v>40.7</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>6.96</v>
+        <v>40.7</v>
       </c>
       <c r="AG20">
-        <v>6.96</v>
+        <v>40.07100000000001</v>
       </c>
       <c r="AH20">
-        <v>0.9299839657936932</v>
+        <v>0.6512</v>
       </c>
       <c r="AI20">
-        <v>77.33333333333346</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="AJ20">
-        <v>0.9299839657936932</v>
+        <v>0.6476539897528729</v>
       </c>
       <c r="AK20">
-        <v>77.33333333333346</v>
+        <v>0.7846135771768714</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AM20">
-        <v>-0.08</v>
+        <v>2.032</v>
+      </c>
+      <c r="AN20">
+        <v>-4.822274881516588</v>
+      </c>
+      <c r="AO20">
+        <v>-4.334883720930232</v>
+      </c>
+      <c r="AP20">
+        <v>-4.747748815165878</v>
       </c>
       <c r="AQ20">
-        <v>-0</v>
+        <v>-4.586614173228346</v>
       </c>
     </row>
     <row r="21">
@@ -2992,23 +2983,8 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="G21">
-        <v>-0.8235294117647058</v>
-      </c>
-      <c r="H21">
-        <v>-0.8235294117647058</v>
-      </c>
-      <c r="I21">
-        <v>-0.7628083491461101</v>
-      </c>
-      <c r="J21">
-        <v>-0.7628083491461101</v>
-      </c>
       <c r="K21">
-        <v>-0.372</v>
-      </c>
-      <c r="L21">
-        <v>-0.7058823529411764</v>
+        <v>0.762</v>
       </c>
       <c r="M21">
         <v>-0</v>
@@ -3017,7 +2993,7 @@
         <v>-0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P21">
         <v>-0</v>
@@ -3026,79 +3002,79 @@
         <v>-0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0.116</v>
+        <v>0.2</v>
       </c>
       <c r="V21">
-        <v>0.01847133757961783</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="W21">
-        <v>-0.1050847457627119</v>
+        <v>0.2645833333333333</v>
       </c>
       <c r="X21">
-        <v>0.02824803761616873</v>
+        <v>0.01841273998344319</v>
       </c>
       <c r="Y21">
-        <v>-0.1333327833788806</v>
+        <v>0.2461705933498902</v>
       </c>
       <c r="Z21">
-        <v>0.1492495043896913</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>-0.1138487680543755</v>
+        <v>-0.4746494066882417</v>
       </c>
       <c r="AB21">
-        <v>0.02826206821259486</v>
+        <v>0.01842826728295068</v>
       </c>
       <c r="AC21">
-        <v>-0.1421108362669704</v>
+        <v>-0.4930776739711924</v>
       </c>
       <c r="AD21">
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
       <c r="AG21">
-        <v>-0.099</v>
+        <v>-0.186</v>
       </c>
       <c r="AH21">
-        <v>0.002699698269016992</v>
+        <v>0.001814882032667877</v>
       </c>
       <c r="AI21">
-        <v>0.005868139454608216</v>
+        <v>0.00212636695018226</v>
       </c>
       <c r="AJ21">
-        <v>-0.01601682575635011</v>
+        <v>-0.02475379291988289</v>
       </c>
       <c r="AK21">
-        <v>-0.03559870550161813</v>
+        <v>-0.02913533834586466</v>
       </c>
       <c r="AL21">
-        <v>0.116</v>
+        <v>0.339</v>
       </c>
       <c r="AM21">
-        <v>-0.073</v>
+        <v>0.339</v>
       </c>
       <c r="AN21">
-        <v>-0.04314720812182742</v>
+        <v>-0.01068702290076336</v>
       </c>
       <c r="AO21">
-        <v>-3.46551724137931</v>
+        <v>-3.893805309734513</v>
       </c>
       <c r="AP21">
-        <v>0.2512690355329949</v>
+        <v>0.1419847328244275</v>
       </c>
       <c r="AQ21">
-        <v>5.506849315068494</v>
+        <v>-3.893805309734513</v>
       </c>
     </row>
     <row r="22">
@@ -3109,7 +3085,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PBS Finanse S.A. (WSE:PBF)</t>
+          <t>Fast Finance S.A. (WSE:FFI)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3118,25 +3094,25 @@
         </is>
       </c>
       <c r="D22">
-        <v>-0.263</v>
+        <v>-0.308</v>
       </c>
       <c r="G22">
-        <v>-0.8553259141494436</v>
+        <v>-3.557377049180328</v>
       </c>
       <c r="H22">
-        <v>-0.8553259141494436</v>
+        <v>-3.557377049180328</v>
       </c>
       <c r="I22">
-        <v>-1.127186009538951</v>
+        <v>-3.745901639344263</v>
       </c>
       <c r="J22">
-        <v>-1.127186009538951</v>
+        <v>-3.745901639344263</v>
       </c>
       <c r="K22">
-        <v>-0.899</v>
+        <v>-4.67</v>
       </c>
       <c r="L22">
-        <v>-1.429252782193959</v>
+        <v>-3.827868852459016</v>
       </c>
       <c r="M22">
         <v>-0</v>
@@ -3160,323 +3136,73 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0.772</v>
+        <v>0.17</v>
       </c>
       <c r="V22">
-        <v>1.565922920892495</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="W22">
-        <v>-0.1643510054844607</v>
+        <v>-6.112565445026178</v>
       </c>
       <c r="X22">
-        <v>0.03376110700887016</v>
+        <v>0.1204763126486985</v>
       </c>
       <c r="Y22">
-        <v>-0.1981121124933309</v>
+        <v>-6.233041757674876</v>
       </c>
       <c r="Z22">
-        <v>0.1238920622414812</v>
+        <v>0.1834310629980454</v>
       </c>
       <c r="AA22">
-        <v>-0.1396493992515265</v>
+        <v>-0.687114719591039</v>
       </c>
       <c r="AB22">
-        <v>0.03798601193247009</v>
+        <v>0.03642313881815774</v>
       </c>
       <c r="AC22">
-        <v>-0.1776354111839966</v>
+        <v>-0.7235378584091967</v>
       </c>
       <c r="AD22">
-        <v>0.373</v>
+        <v>6.44</v>
       </c>
       <c r="AE22">
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>0.373</v>
+        <v>6.44</v>
       </c>
       <c r="AG22">
-        <v>-0.399</v>
+        <v>6.27</v>
       </c>
       <c r="AH22">
-        <v>0.430715935334873</v>
+        <v>0.9326574945691528</v>
       </c>
       <c r="AI22">
-        <v>0.0763874667212779</v>
+        <v>-1.381974248927039</v>
       </c>
       <c r="AJ22">
-        <v>-4.244680851063832</v>
+        <v>0.9309576837416481</v>
       </c>
       <c r="AK22">
-        <v>-0.0970566772074921</v>
+        <v>-1.298136645962733</v>
       </c>
       <c r="AL22">
-        <v>0.025</v>
+        <v>0.039</v>
       </c>
       <c r="AM22">
-        <v>-0.147</v>
+        <v>0.039</v>
       </c>
       <c r="AN22">
-        <v>-0.5703363914373089</v>
+        <v>-1.412280701754386</v>
       </c>
       <c r="AO22">
-        <v>-28.36</v>
+        <v>-117.1794871794872</v>
       </c>
       <c r="AP22">
-        <v>0.6100917431192661</v>
+        <v>-1.375</v>
       </c>
       <c r="AQ22">
-        <v>4.823129251700681</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Aforti Holding S.A. (WSE:AFH)</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>2.239</v>
-      </c>
-      <c r="G23">
-        <v>-0.01646897810218978</v>
-      </c>
-      <c r="H23">
-        <v>-0.01646897810218978</v>
-      </c>
-      <c r="I23">
-        <v>-0.03307481751824818</v>
-      </c>
-      <c r="J23">
-        <v>-0.03307481751824818</v>
-      </c>
-      <c r="K23">
-        <v>-0.016</v>
-      </c>
-      <c r="L23">
-        <v>-7.299270072992701e-05</v>
-      </c>
-      <c r="M23">
-        <v>-0</v>
-      </c>
-      <c r="N23">
-        <v>-0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>-0</v>
-      </c>
-      <c r="Q23">
-        <v>-0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0.192</v>
-      </c>
-      <c r="V23">
-        <v>0.003434704830053668</v>
-      </c>
-      <c r="W23">
-        <v>-0.01025641025641026</v>
-      </c>
-      <c r="X23">
-        <v>0.03216594391945717</v>
-      </c>
-      <c r="Y23">
-        <v>-0.04242235417586742</v>
-      </c>
-      <c r="Z23">
-        <v>10.21911421911422</v>
-      </c>
-      <c r="AA23">
-        <v>-0.337995337995338</v>
-      </c>
-      <c r="AB23">
-        <v>0.03369096100703358</v>
-      </c>
-      <c r="AC23">
-        <v>-0.3716862990023715</v>
-      </c>
-      <c r="AD23">
-        <v>30.1</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>30.1</v>
-      </c>
-      <c r="AG23">
-        <v>29.908</v>
-      </c>
-      <c r="AH23">
-        <v>0.35</v>
-      </c>
-      <c r="AI23">
-        <v>0.9356543363382033</v>
-      </c>
-      <c r="AJ23">
-        <v>0.3485455901547642</v>
-      </c>
-      <c r="AK23">
-        <v>0.9352679967477641</v>
-      </c>
-      <c r="AL23">
-        <v>2.26</v>
-      </c>
-      <c r="AM23">
-        <v>2.097</v>
-      </c>
-      <c r="AN23">
-        <v>-4.553706505295008</v>
-      </c>
-      <c r="AO23">
-        <v>-3.207964601769912</v>
-      </c>
-      <c r="AP23">
-        <v>-4.524659606656581</v>
-      </c>
-      <c r="AQ23">
-        <v>-3.457319980925131</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Figene Capital Spólka Akcyjna (WSE:FIG)</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>-0.011</v>
-      </c>
-      <c r="G24">
-        <v>-2.231884057971014</v>
-      </c>
-      <c r="H24">
-        <v>-2.231884057971014</v>
-      </c>
-      <c r="I24">
-        <v>-5.811594202898551</v>
-      </c>
-      <c r="J24">
-        <v>-5.811594202898551</v>
-      </c>
-      <c r="K24">
-        <v>-0.294</v>
-      </c>
-      <c r="L24">
-        <v>-2.130434782608695</v>
-      </c>
-      <c r="M24">
-        <v>-0</v>
-      </c>
-      <c r="N24">
-        <v>-0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>-0</v>
-      </c>
-      <c r="Q24">
-        <v>-0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0.11</v>
-      </c>
-      <c r="V24">
-        <v>0.0007812499999999999</v>
-      </c>
-      <c r="W24">
-        <v>-0.1860759493670886</v>
-      </c>
-      <c r="X24">
-        <v>0.0284209317349156</v>
-      </c>
-      <c r="Y24">
-        <v>-0.2144968811020042</v>
-      </c>
-      <c r="Z24">
-        <v>0.08151210868281158</v>
-      </c>
-      <c r="AA24">
-        <v>-0.4737152982870644</v>
-      </c>
-      <c r="AB24">
-        <v>0.03005756273853444</v>
-      </c>
-      <c r="AC24">
-        <v>-0.5037728610255988</v>
-      </c>
-      <c r="AD24">
-        <v>3.71</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>3.71</v>
-      </c>
-      <c r="AG24">
-        <v>3.6</v>
-      </c>
-      <c r="AH24">
-        <v>0.02567296380873296</v>
-      </c>
-      <c r="AI24">
-        <v>0.06647554201755958</v>
-      </c>
-      <c r="AJ24">
-        <v>0.02493074792243767</v>
-      </c>
-      <c r="AK24">
-        <v>0.06463195691202872</v>
-      </c>
-      <c r="AL24">
-        <v>0.264</v>
-      </c>
-      <c r="AM24">
-        <v>0.263</v>
-      </c>
-      <c r="AO24">
-        <v>-3.037878787878788</v>
-      </c>
-      <c r="AQ24">
-        <v>-3.049429657794677</v>
+        <v>-117.1794871794872</v>
       </c>
     </row>
   </sheetData>
